--- a/src/main/resources/excel/test.xlsx
+++ b/src/main/resources/excel/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yance/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yance/IdeaProjects/iptv_sas/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3992CEC-0956-1748-9449-233D2E6B4331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E40FE-CB08-754B-BE7F-CF8ECC31059F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="60" windowWidth="28020" windowHeight="17440" xr2:uid="{FA7FAE69-D056-F640-98F0-78322CBA81D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>商品名称</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>杨鹏有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账期${zq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -126,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +149,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C545516-085B-5D40-A57A-BFF1346BB100}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -466,7 +481,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +489,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -488,11 +503,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/excel/test.xlsx
+++ b/src/main/resources/excel/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yance/IdeaProjects/iptv_sas/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E40FE-CB08-754B-BE7F-CF8ECC31059F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581030F-F308-C641-82F9-60CB7FCEA5CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="60" windowWidth="28020" windowHeight="17440" xr2:uid="{FA7FAE69-D056-F640-98F0-78322CBA81D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28300" windowHeight="18000" xr2:uid="{FA7FAE69-D056-F640-98F0-78322CBA81D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>商品名称</t>
   </si>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>账期${zq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${time}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${测试中文}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${产品}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,6 +145,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -138,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +177,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,57 +497,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C545516-085B-5D40-A57A-BFF1346BB100}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
